--- a/biology/Zoologie/Eryx_colubrinus/Eryx_colubrinus.xlsx
+++ b/biology/Zoologie/Eryx_colubrinus/Eryx_colubrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eryx colubrinus est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryx colubrinus est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Égypte, au Soudan, en Éthiopie, en Érythrée, en Somalie, au Kenya et en Tanzanie. Sa présence est incertaine en Libye, au Tchad, au Niger et au Yémen[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Égypte, au Soudan, en Éthiopie, en Érythrée, en Somalie, au Kenya et en Tanzanie. Sa présence est incertaine en Libye, au Tchad, au Niger et au Yémen. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un boa fouisseur de petite taille, mesurant environ 45 cm pour les mâles et 80 cm pour les femelles. Il se présente communément en deux couleurs : jaune sur fond marron/noir ou orange sur fond marron/noir.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2014) :
 Eryx colubrinus colubrinus (Linnaeus, 1758)
 Eryx colubrinus loveridgei Stull, 1932</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espère Eryx colubrinus loveridgei est nommée en l'honneur d'Arthur Loveridge[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espère Eryx colubrinus loveridgei est nommée en l'honneur d'Arthur Loveridge.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).
 Stull, 1932 : Five new subspecies of the family Boidae. Occasional papers of the Boston Society of Natural History, vol. 8, p. 25-29 (texte intégral).</t>
